--- a/project/docs/acim_pump_parameters.xlsx
+++ b/project/docs/acim_pump_parameters.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROJECTS_D\BitBucket\MCAPP-ACIM-FOC-PLL-PUMP\project\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROJECTS_D\CE_Release\BitBucket\mchv230vac1.5kw-33ck256mp508-acim-pump-foc-pll-ce\project\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86CBF9DE-CC7B-428F-BAE5-C35F3DF43695}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67F8E321-FB06-4F32-93F9-BEEBDE5B2B4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="1380" windowWidth="17280" windowHeight="11580" xr2:uid="{B2002F51-A475-4A03-975C-2D7513E29250}"/>
+    <workbookView xWindow="-108" yWindow="-13068" windowWidth="23256" windowHeight="12456" xr2:uid="{B2002F51-A475-4A03-975C-2D7513E29250}"/>
   </bookViews>
   <sheets>
     <sheet name="ACIM_FOC" sheetId="2" r:id="rId1"/>
@@ -770,8 +770,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{306D1DD7-844E-4B97-9BAC-E538F2BDFA1F}">
   <dimension ref="A1:L48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="136" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="136" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
